--- a/Examples/IEEE_14Bus.xlsx
+++ b/Examples/IEEE_14Bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DCAE03-81DC-448E-8249-B4BF67B0B11B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCD2533-6BCD-40B9-8E9A-7DF1E52D3240}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -1513,7 +1513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -2128,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2676,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2767,7 +2767,7 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>

--- a/Examples/IEEE_14Bus.xlsx
+++ b/Examples/IEEE_14Bus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRep\Power-System-Analysis-Toolbox\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49B4E3E-5314-48A8-978E-DD67D2C7ADF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CF2708-80BA-45FD-B420-64368E2781E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -237,20 +237,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -259,7 +259,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,7 +267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,7 +275,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -283,13 +283,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -317,13 +317,13 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,19 +610,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="11.265625" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -654,7 +654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -760,7 +760,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -865,7 +865,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -932,7 +932,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1151,30 +1151,30 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.73046875" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.265625" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" customWidth="1"/>
-    <col min="9" max="9" width="18.73046875" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="17.9296875" customWidth="1"/>
-    <col min="13" max="13" width="14.46484375" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1367,41 +1367,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
         <f>B3*1000/2</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1432,18 +1432,18 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -1481,33 +1481,33 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.53125" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>10</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>13</v>
       </c>
@@ -2007,21 +2007,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
